--- a/Translations_Time-Unit_Modifications_11May2017.xlsx
+++ b/Translations_Time-Unit_Modifications_11May2017.xlsx
@@ -1790,8 +1790,8 @@
   <dimension ref="A1:X1064"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
